--- a/data_sheets/Simple_Power_Model.xlsx
+++ b/data_sheets/Simple_Power_Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/jingyj11_uw_edu/Documents/2024winter/514 SWHWLab/wk05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/jingyj11_uw_edu/Documents/2024winter/514 SWHWLab/Hydration Companion/data_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_87C04D2A097D4CDC1234BB3A4DD4B146906C7D67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B0BE8A-1090-4DC9-8C36-7A0231560DA3}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="11_87C04D2A097D4CDC1234BB3A4DD4B146906C7D67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A303EE1E-2F67-4CCE-928F-EBF3C1BCCD1E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,9 +511,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$D$99:$O$99</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sensitivity Analysis'!$D$99:$O$99</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Sensitivity Analysis'!$D$99:$H$99,'Sensitivity Analysis'!$J$99:$O$99)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>ProcessorActive</c:v>
                 </c:pt>
@@ -530,24 +537,21 @@
                   <c:v>SensorOn</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SensorIdle</c:v>
+                  <c:v>SensorOff</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SensorOff</c:v>
+                  <c:v>DisplayOn</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>DisplayOn</c:v>
+                  <c:v>DisplayOff</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>DisplayOff</c:v>
+                  <c:v>RadioStandby</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>RadioStandby</c:v>
+                  <c:v>RadioTX</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>RadioTX</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>RadioRX</c:v>
                 </c:pt>
               </c:strCache>
@@ -555,10 +559,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sensitivity Analysis'!$D$98:$O$98</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sensitivity Analysis'!$D$98:$O$98</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Sensitivity Analysis'!$D$98:$H$98,'Sensitivity Analysis'!$J$98:$O$98)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.173525787519325E-2</c:v>
                 </c:pt>
@@ -578,21 +589,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.8312477456230436E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8312477456230436E-2</c:v>
+                  <c:v>3.8160656363306344E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8160656363306344E-4</c:v>
+                  <c:v>2.7291048536079998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7291048536079998E-2</c:v>
+                  <c:v>1.0910777120101134E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0910777120101134E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>1.3625463265753979E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1576,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1610,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1619,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -1640,7 +1648,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1669,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1715,7 @@
       <c r="A10" s="7"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1829,7 @@
       <c r="A19" s="7"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1884,7 @@
       <c r="A23" s="7"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2061,7 @@
       <c r="K29" s="7"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="E30" s="13">
         <v>14</v>
@@ -2106,7 +2114,7 @@
       <c r="K32" s="7"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -2315,7 +2323,8 @@
     <hyperlink ref="B15" r:id="rId1" xr:uid="{2BE6C8CC-E46B-4AE7-9BBC-C5173E9790ED}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="66" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2326,7 +2335,7 @@
   </sheetPr>
   <dimension ref="A50:W118"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="B88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6493,6 +6502,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>